--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34C13317-40C0-4758-9F41-BCBF1E810337}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF0660E-DC61-47ED-9FD8-454D9485BCF8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
   <sheets>
     <sheet name="Old config" sheetId="1" r:id="rId1"/>
@@ -286,15 +286,15 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -646,7 +646,7 @@
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="11" width="9.140625" style="4"/>
+    <col min="6" max="11" width="9.140625" style="2"/>
     <col min="12" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -654,33 +654,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="5"/>
       <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
@@ -701,22 +701,22 @@
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -763,27 +763,27 @@
       <c r="E3" s="1">
         <v>22</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <f>P3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <f>Q3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <f>L3+N3</f>
         <v>10</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <f>M3+O3</f>
         <v>7</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <f>S3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <f>R3</f>
         <v>0</v>
       </c>
@@ -831,27 +831,27 @@
       <c r="E4" s="1">
         <v>14</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f t="shared" ref="F4:F26" si="0">P4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G26" si="1">Q4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H26" si="2">L4+N4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <f t="shared" ref="I4:I26" si="3">M4+O4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <f t="shared" ref="J4:J26" si="4">S4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K26" si="5">R4</f>
         <v>0</v>
       </c>
@@ -899,27 +899,27 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -951,50 +951,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="5" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1005,27 +1005,27 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1037,27 +1037,27 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1069,27 +1069,27 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1101,27 +1101,27 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1133,27 +1133,27 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1165,27 +1165,27 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1197,27 +1197,27 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1229,27 +1229,27 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1261,27 +1261,27 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1293,27 +1293,27 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1325,27 +1325,27 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1357,27 +1357,27 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1389,27 +1389,27 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1421,27 +1421,27 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1453,27 +1453,27 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1485,27 +1485,27 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1517,27 +1517,27 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1549,27 +1549,27 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1581,27 +1581,27 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1613,36 +1613,36 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1675,7 @@
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="11" width="9.140625" style="4"/>
+    <col min="6" max="11" width="9.140625" style="2"/>
     <col min="12" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1683,33 +1683,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="5"/>
       <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1730,22 +1730,22 @@
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1792,27 +1792,27 @@
       <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <f>P3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <f>Q3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <f>L3+N3</f>
         <v>8</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <f>M3+O3</f>
         <v>8</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <f>S3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <f>R3</f>
         <v>0</v>
       </c>
@@ -1860,27 +1860,27 @@
       <c r="E4" s="1">
         <v>21</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f t="shared" ref="F4:G26" si="0">P4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:I26" si="1">L4+N4</f>
         <v>10</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <f t="shared" ref="J4:J26" si="2">S4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K26" si="3">R4</f>
         <v>0</v>
       </c>
@@ -1928,27 +1928,27 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1996,27 +1996,27 @@
       <c r="E6" s="1">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2064,27 +2064,27 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2116,49 +2116,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2167,29 +2167,65 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C9" s="1">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1">
+        <v>104</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2199,29 +2235,65 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C10" s="1">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1">
+        <v>98</v>
+      </c>
+      <c r="E10" s="1">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2231,27 +2303,27 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2263,27 +2335,27 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2295,27 +2367,27 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2327,27 +2399,27 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2359,27 +2431,27 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2391,27 +2463,27 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2423,27 +2495,27 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2455,27 +2527,27 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2487,27 +2559,27 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2519,27 +2591,27 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2551,27 +2623,27 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2583,27 +2655,27 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2615,27 +2687,27 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2647,27 +2719,27 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2679,27 +2751,27 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2711,48 +2783,49 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF0660E-DC61-47ED-9FD8-454D9485BCF8}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC64E0E-B107-485D-8C5D-72BCC6DF6B3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
@@ -1664,10 +1664,10 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,6 +2303,15 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="1">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2327,38 +2336,77 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2367,6 +2415,15 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="1">
+        <v>102</v>
+      </c>
+      <c r="D13" s="1">
+        <v>102</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2391,38 +2448,91 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C14" s="4">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4">
+        <v>83</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>78</v>
+      </c>
+      <c r="M14" s="4">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>73</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Documents\Studeren\Studie\2025-2026\Q2\EE2L1\Project-Heart-EE2L1\src\module_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9B4328-7274-431E-971D-FBE249B4B4CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63036E2-4019-4EB5-8A9D-4B776D08278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
   <sheets>
     <sheet name="Old config" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
   <si>
     <t>Folder</t>
   </si>
@@ -193,13 +193,28 @@
   </si>
   <si>
     <t>Errors</t>
+  </si>
+  <si>
+    <t>Type I</t>
+  </si>
+  <si>
+    <t>Type II</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Not marked as correct peak</t>
+  </si>
+  <si>
+    <t>Marked as correct peak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +244,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -253,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -276,14 +314,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
@@ -295,12 +384,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Berekening" xfId="3" builtinId="22"/>
+    <cellStyle name="Invoer" xfId="2" builtinId="20"/>
+    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
+    <cellStyle name="Procent" xfId="4" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -316,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -641,19 +742,19 @@
       <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="11" width="9.140625" style="2"/>
-    <col min="12" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="3" max="5" width="9.109375" style="1"/>
+    <col min="6" max="11" width="9.109375" style="2"/>
+    <col min="12" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
@@ -685,7 +786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -747,7 +848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -815,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -883,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -951,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1414,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1661,28 +1762,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B30D275-F070-4BE2-8B55-94F930913A2C}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="11" width="9.140625" style="2"/>
-    <col min="12" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="3" max="5" width="9.109375" style="1"/>
+    <col min="6" max="11" width="9.109375" style="2"/>
+    <col min="12" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
@@ -1714,7 +1815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1861,7 +1962,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:G26" si="0">P4</f>
+        <f t="shared" ref="F4:G40" si="0">P4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
@@ -1869,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:I26" si="1">L4+N4</f>
+        <f t="shared" ref="H4:I40" si="1">L4+N4</f>
         <v>10</v>
       </c>
       <c r="I4" s="2">
@@ -1877,11 +1978,11 @@
         <v>15</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J26" si="2">S4</f>
+        <f t="shared" ref="J4:J40" si="2">S4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K26" si="3">R4</f>
+        <f t="shared" ref="K4:K40" si="3">R4</f>
         <v>0</v>
       </c>
       <c r="L4" s="1">
@@ -1912,7 +2013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -2160,7 +2261,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2228,7 +2329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2296,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2364,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2408,7 +2509,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2476,886 +2577,1158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="10">
         <v>24</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="10">
         <v>19</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="10">
         <v>83</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="10">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="J14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
         <v>78</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="10">
         <v>5</v>
       </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
         <v>73</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="11">
+        <f>SUM(C3:C7,C9:C11,C13)</f>
+        <v>946</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:T15" si="4">SUM(D3:D7,D9:D11,D13)</f>
+        <v>896</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUM(C15,-F15,H15)</f>
+        <v>972</v>
+      </c>
+      <c r="D21" s="1">
+        <f>SUM(D15,-G15,I15)</f>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="16">
+        <f>(C21-C15)/C21</f>
+        <v>2.6748971193415638E-2</v>
+      </c>
+      <c r="D26" s="16">
+        <f>(D21-D15)/D21</f>
+        <v>3.8626609442060089E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C15/C21</f>
+        <v>0.97325102880658432</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D15/D21</f>
+        <v>0.96137339055793991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C29" s="1">
         <v>111</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D29" s="1">
         <v>110</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C30" s="1">
         <v>110</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D30" s="1">
         <v>109</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I30" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="J30" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
         <v>2</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N30" s="1">
         <v>1</v>
       </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C31" s="1">
         <v>111</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D31" s="1">
         <v>110</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C32" s="1">
         <v>111</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D32" s="1">
         <v>110</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C33" s="1">
         <v>111</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D33" s="1">
         <v>110</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C34" s="1">
         <v>111</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D34" s="1">
         <v>110</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I34" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="J34" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M34" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C35" s="1">
         <v>113</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D35" s="1">
         <v>112</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C36" s="1">
         <v>114</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D36" s="1">
         <v>110</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E36" s="1">
         <v>9</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I36" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="J36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
         <v>4</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M36" s="1">
         <v>3</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C37" s="1">
         <v>113</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D37" s="1">
         <v>112</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C38" s="1">
         <v>113</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D38" s="1">
         <v>112</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C39" s="1">
         <v>115</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D39" s="1">
         <v>113</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="40" spans="1:20" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C40" s="13">
         <v>113</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D40" s="13">
         <v>112</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+      <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>0</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0</v>
+      </c>
+      <c r="S40" s="13">
+        <v>0</v>
+      </c>
+      <c r="T40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="11">
+        <f>SUM(C29:C40)</f>
+        <v>1346</v>
+      </c>
+      <c r="D41" s="11">
+        <f t="shared" ref="D41:T41" si="5">SUM(D29:D40)</f>
+        <v>1330</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M41" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N41" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="1">
+        <f>SUM(C41,-F41,H41)</f>
+        <v>1352</v>
+      </c>
+      <c r="D47" s="1">
+        <f>SUM(D41,-G41,I41)</f>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="16">
+        <f>(C47-C41)/C47</f>
+        <v>4.4378698224852072E-3</v>
+      </c>
+      <c r="D52" s="16">
+        <f>(D47-D41)/D47</f>
+        <v>4.4910179640718561E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="16">
+        <f>C41/C47</f>
+        <v>0.99556213017751483</v>
+      </c>
+      <c r="D53" s="16">
+        <f>D41/D47</f>
+        <v>0.99550898203592819</v>
       </c>
     </row>
   </sheetData>
